--- a/channel to outlet to gpio map.xlsx
+++ b/channel to outlet to gpio map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">DEVICE</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">WHITESIGN</t>
   </si>
   <si>
+    <t xml:space="preserve">UNUSED</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHITEWINDOW1</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
     <t xml:space="preserve">WHITETREE2</t>
   </si>
   <si>
-    <t xml:space="preserve">UNUSED</t>
+    <t xml:space="preserve">LAST UPDATED 11/29/2020 12:06</t>
   </si>
 </sst>
 </file>
@@ -127,18 +130,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,12 +181,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -201,66 +210,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -269,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A18:A25"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,6 +288,12 @@
       <c r="D4" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -353,251 +308,305 @@
       <c r="D5" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>701</v>
-      </c>
       <c r="C6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>501</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>703</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>202</v>
+        <v>701</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>302</v>
+        <v>703</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>702</v>
+        <v>202</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>704</v>
+        <v>301</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>601</v>
+        <v>302</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>602</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>702</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>704</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>601</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>602</v>
+      </c>
       <c r="C25" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N6:O6"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
